--- a/rhla_analysis/rhla1_6_normal_result/k9.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k9.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005442441895356158</v>
+        <v>0.00544244189535614</v>
       </c>
       <c r="B2" t="n">
         <v>0.3868688204044273</v>
@@ -466,12 +466,12 @@
         <v>0.2121520706042091</v>
       </c>
       <c r="D2" t="n">
-        <v>71.08368409675236</v>
+        <v>71.08368409675261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.004450428370989815</v>
+        <v>0.004450428370989821</v>
       </c>
       <c r="B3" t="n">
         <v>0.3481264133126285</v>
@@ -480,12 +480,12 @@
         <v>0.2009504412763068</v>
       </c>
       <c r="D3" t="n">
-        <v>78.22312467309794</v>
+        <v>78.22312467309784</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.005846342602527478</v>
+        <v>0.005846342602527459</v>
       </c>
       <c r="B4" t="n">
         <v>0.4723844193854265</v>
@@ -494,12 +494,12 @@
         <v>0.2070604209097081</v>
       </c>
       <c r="D4" t="n">
-        <v>80.79998924134317</v>
+        <v>80.79998924134343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.008478029565290453</v>
+        <v>0.008478029565290359</v>
       </c>
       <c r="B5" t="n">
         <v>0.470973522793681</v>
@@ -508,12 +508,12 @@
         <v>0.2046843177189409</v>
       </c>
       <c r="D5" t="n">
-        <v>55.55223877985447</v>
+        <v>55.55223877985508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.006511392721031849</v>
+        <v>0.006511392721031891</v>
       </c>
       <c r="B6" t="n">
         <v>0.3544251893165958</v>
@@ -522,12 +522,12 @@
         <v>0.2131704005431093</v>
       </c>
       <c r="D6" t="n">
-        <v>54.43154859509544</v>
+        <v>54.43154859509509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.007612875928473668</v>
+        <v>0.007612875928473613</v>
       </c>
       <c r="B7" t="n">
         <v>0.3819509677447235</v>
@@ -536,21 +536,21 @@
         <v>0.2040054310930075</v>
       </c>
       <c r="D7" t="n">
-        <v>50.17170532310279</v>
+        <v>50.17170532310316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.006081034664539389</v>
+        <v>0.006081034664539381</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3678501555406915</v>
+        <v>0.3678501555406916</v>
       </c>
       <c r="C8" t="n">
         <v>0.225050916496945</v>
       </c>
       <c r="D8" t="n">
-        <v>60.49137619388238</v>
+        <v>60.49137619388247</v>
       </c>
     </row>
     <row r="9">
@@ -564,12 +564,12 @@
         <v>0.2012898845892736</v>
       </c>
       <c r="D9" t="n">
-        <v>85.06667307269069</v>
+        <v>85.0666730726907</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.006428877276463157</v>
+        <v>0.00642887727646319</v>
       </c>
       <c r="B10" t="n">
         <v>0.4170436723191207</v>
@@ -578,12 +578,12 @@
         <v>0.2172437202987101</v>
       </c>
       <c r="D10" t="n">
-        <v>64.87037384365144</v>
+        <v>64.87037384365111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.003983687255792537</v>
+        <v>0.003983687255792546</v>
       </c>
       <c r="B11" t="n">
         <v>0.4068974853284011</v>
@@ -592,7 +592,7 @@
         <v>0.2118126272912424</v>
       </c>
       <c r="D11" t="n">
-        <v>102.1409210114941</v>
+        <v>102.1409210114939</v>
       </c>
     </row>
   </sheetData>
